--- a/SCBAA/2019/Region 8.xlsx
+++ b/SCBAA/2019/Region 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D43FCEC-4C10-4259-9FC7-550766E813B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB5204B-D74D-498C-B31E-17EAA055B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="1095" windowWidth="13005" windowHeight="12495" firstSheet="3" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calbayog" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3901,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236DA0D-E80F-4060-9CB3-4F8B7D7C3FEC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4056,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="24">
-        <f>28827.25+1103845.57+547516.21</f>
         <v>1680189.03</v>
       </c>
     </row>
@@ -4061,7 +4067,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>26253536.859999999</v>
       </c>
     </row>
@@ -4115,7 +4120,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>21470837.59</v>
       </c>
     </row>
@@ -4306,7 +4310,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>789700235.61000001</v>
       </c>
     </row>
@@ -4883,7 +4886,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>755508787.38999999</v>
       </c>
     </row>
@@ -5050,7 +5052,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="38">
-        <f>986424.3+9462621.26+88937366.64</f>
         <v>99386412.200000003</v>
       </c>
     </row>
@@ -5059,7 +5060,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>136765123.66</v>
       </c>
     </row>
@@ -5071,7 +5071,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>892273911.04999995</v>
       </c>
     </row>
@@ -8663,8 +8662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84D013-E7BE-4D7A-85C9-9A3234CF01B3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113:E114"/>
+    <sheetView topLeftCell="E96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F111" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8822,7 +8821,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>302998503.68000001</v>
       </c>
     </row>
@@ -8876,7 +8874,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>182917716.14000002</v>
       </c>
     </row>
@@ -9067,7 +9064,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1276246172.8200002</v>
       </c>
     </row>
@@ -9624,7 +9620,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="23">
-        <f>59427625.08+20639031</f>
         <v>80066656.079999998</v>
       </c>
     </row>
@@ -9645,7 +9640,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>1233217956.0900002</v>
       </c>
     </row>
@@ -9820,7 +9814,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>43028216.729999997</v>
       </c>
     </row>
@@ -9832,7 +9825,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1276246172.8200002</v>
       </c>
     </row>
